--- a/项目文件/项目计划及每日汇报.xlsx
+++ b/项目文件/项目计划及每日汇报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>任务人</t>
   </si>
@@ -33,6 +33,9 @@
     <t>7/27进度</t>
   </si>
   <si>
+    <t>7/28进度</t>
+  </si>
+  <si>
     <t>主页</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
     <t>布局完成，功能基本完成</t>
   </si>
   <si>
+    <t>布局完成，功能基本完成，优化页面</t>
+  </si>
+  <si>
     <t>搜索页</t>
   </si>
   <si>
@@ -63,6 +69,9 @@
     <t>布局完成，功能未实现</t>
   </si>
   <si>
+    <t>布局完成，功能未实现，优化页面</t>
+  </si>
+  <si>
     <t>房源列表页</t>
   </si>
   <si>
@@ -72,6 +81,9 @@
     <t>布局完成，此页面无功能</t>
   </si>
   <si>
+    <t>布局完成，此页面无功能，优化页面</t>
+  </si>
+  <si>
     <t>房源详情页</t>
   </si>
   <si>
@@ -90,6 +102,9 @@
     <t>布局完成，功能完成</t>
   </si>
   <si>
+    <t>布局完成，功能完成，优化页面</t>
+  </si>
+  <si>
     <t>支付页</t>
   </si>
   <si>
@@ -102,10 +117,14 @@
     <t>收件箱页</t>
   </si>
   <si>
+    <t>个人中心页</t>
+  </si>
+  <si>
     <t>布局完成，无功能</t>
   </si>
   <si>
-    <t>个人中心页</t>
+    <t>额外：今天配置了服务器，上线了项目，做了手机真
+机兼容，做了动画组件。</t>
   </si>
   <si>
     <t>暂无</t>
@@ -745,7 +764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,6 +788,9 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1118,23 +1140,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="22.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="24.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="44.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="46.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="41.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="41.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="45.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:7">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1147,168 +1170,201 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:C11"/>
+    <mergeCell ref="G12:G15"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1329,7 +1385,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>

--- a/项目文件/项目计划及每日汇报.xlsx
+++ b/项目文件/项目计划及每日汇报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>任务人</t>
   </si>
@@ -36,6 +36,9 @@
     <t>7/28进度</t>
   </si>
   <si>
+    <t>7/30进度</t>
+  </si>
+  <si>
     <t>主页</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
   </si>
   <si>
     <t>布局完成，功能基本完成，优化页面</t>
+  </si>
+  <si>
+    <t>布局完成，功能完成，优化细节，整理好数据，数据待加载</t>
   </si>
   <si>
     <t>搜索页</t>
@@ -136,9 +142,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -171,9 +177,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,67 +304,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,56 +313,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -323,6 +329,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -353,60 +479,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -414,72 +486,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,45 +520,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -567,26 +534,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,6 +561,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -622,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,137 +640,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,20 +783,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1140,13 +1140,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="22.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.875" style="3" customWidth="1"/>
@@ -1154,10 +1154,10 @@
     <col min="4" max="4" width="44.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="46.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="41.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="45.375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="45.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:8">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1173,198 +1173,221 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="7:7">
-      <c r="G12" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="7:8">
+      <c r="G12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="8:8">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="8:8">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="8:8">
+      <c r="H15" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H2:H15"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1385,7 +1408,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>

--- a/项目文件/项目计划及每日汇报.xlsx
+++ b/项目文件/项目计划及每日汇报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>任务人</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>7/30进度</t>
+  </si>
+  <si>
+    <t>7/31进度</t>
   </si>
   <si>
     <t>主页</t>
@@ -142,9 +145,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -177,7 +180,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,35 +288,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -249,64 +308,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,25 +332,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,78 +489,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +523,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,6 +576,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,65 +623,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -628,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +643,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,13 +1143,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="22.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.875" style="3" customWidth="1"/>
@@ -1154,10 +1157,10 @@
     <col min="4" max="4" width="44.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="46.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="41.875" style="3" customWidth="1"/>
-    <col min="7" max="8" width="45.375" style="3" customWidth="1"/>
+    <col min="7" max="9" width="45.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:9">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1179,215 +1182,233 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4"/>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4"/>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="7:8">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="7:9">
       <c r="G12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="8:8">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="8:9">
       <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="8:8">
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="8:9">
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="8:8">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="8:9">
       <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="H2:H15"/>
+    <mergeCell ref="I2:I15"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1408,7 +1429,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
